--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdf2-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gdf2-Acvr2a.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.940402333333334</v>
+        <v>15.75563966666667</v>
       </c>
       <c r="N2">
-        <v>23.821207</v>
+        <v>47.266919</v>
       </c>
       <c r="O2">
-        <v>0.1931648990487216</v>
+        <v>0.3220556913988901</v>
       </c>
       <c r="P2">
-        <v>0.1931648990487216</v>
+        <v>0.32205569139889</v>
       </c>
       <c r="Q2">
-        <v>9.847520225350999</v>
+        <v>19.539813446167</v>
       </c>
       <c r="R2">
-        <v>88.627682028159</v>
+        <v>175.858321015503</v>
       </c>
       <c r="S2">
-        <v>0.1931648990487216</v>
+        <v>0.3220556913988901</v>
       </c>
       <c r="T2">
-        <v>0.1931648990487216</v>
+        <v>0.32205569139889</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>80.861542</v>
       </c>
       <c r="O3">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378365</v>
       </c>
       <c r="P3">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378364</v>
       </c>
       <c r="Q3">
         <v>33.42759543200599</v>
@@ -632,10 +632,10 @@
         <v>300.848358888054</v>
       </c>
       <c r="S3">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378365</v>
       </c>
       <c r="T3">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378364</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>18.637829</v>
       </c>
       <c r="O4">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="P4">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="Q4">
         <v>7.704748043796999</v>
@@ -694,10 +694,10 @@
         <v>69.342732394173</v>
       </c>
       <c r="S4">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="T4">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
     </row>
   </sheetData>
